--- a/DataFileSamples/ZirconTiTempTest.xlsx
+++ b/DataFileSamples/ZirconTiTempTest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GeoCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/Documents/GeoPython/NewGUI/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16960" yWindow="7280" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="-38400" yWindow="6620" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,98 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
-  <si>
-    <t>K2O</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Marker</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>DataType</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>P10T</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P1LT</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>P10TC10</t>
-  </si>
-  <si>
-    <t>88B2</t>
-  </si>
-  <si>
-    <t>823-i</t>
-  </si>
-  <si>
-    <t>P1LT1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ti</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SiO2</t>
+    <t>ASiO2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TiO2</t>
+    <t>ATiO2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +67,29 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF807D6E"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,17 +127,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -490,276 +446,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>5.37</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3.51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>0.6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12565</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>11.4</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2.15</v>
-      </c>
-      <c r="E3">
-        <v>1543</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>0.6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3">
-        <v>1543</v>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>89525</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8.2100000000000009</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3.05</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>0.6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5457</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3.2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>0.6</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3084</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.95</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3.3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>0.6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20330</v>
       </c>
     </row>
   </sheetData>
